--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.2-20-4.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.2-20-4.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>C,D</t>
+  </si>
+  <si>
     <t>A,C</t>
   </si>
   <si>
-    <t>C,D</t>
+    <t>A,B</t>
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>A,B</t>
   </si>
 </sst>
 </file>
@@ -444,100 +444,100 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>1146</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>1579</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>82</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>1714</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>334</v>
+        <v>164</v>
       </c>
       <c r="F4">
-        <v>1962</v>
+        <v>2003</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>550</v>
+        <v>174</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>550</v>
+        <v>174</v>
       </c>
       <c r="F5">
-        <v>2120</v>
+        <v>322</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -545,25 +545,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>550</v>
+        <v>367</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>550</v>
+        <v>367</v>
       </c>
       <c r="F6">
-        <v>1684</v>
+        <v>1966</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -571,51 +571,51 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>700</v>
+        <v>406</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>700</v>
+        <v>406</v>
       </c>
       <c r="F7">
-        <v>1913</v>
+        <v>1613</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>751</v>
+        <v>692</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>751</v>
+        <v>692</v>
       </c>
       <c r="F8">
-        <v>991</v>
+        <v>833</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -623,74 +623,74 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="C9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="F9">
-        <v>1946</v>
+        <v>908</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1134</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1134</v>
+      </c>
+      <c r="F10">
+        <v>2697</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>858</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>858</v>
-      </c>
-      <c r="F10">
-        <v>2048</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>902</v>
+        <v>1327</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>902</v>
+        <v>1327</v>
       </c>
       <c r="F11">
-        <v>2116</v>
+        <v>2358</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -701,48 +701,48 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>911</v>
+        <v>1352</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>911</v>
+        <v>1352</v>
       </c>
       <c r="F12">
-        <v>2442</v>
+        <v>2284</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>970</v>
+        <v>1359</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>970</v>
+        <v>1359</v>
       </c>
       <c r="F13">
-        <v>2676</v>
+        <v>3162</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -753,28 +753,28 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>1063</v>
+        <v>1385</v>
       </c>
       <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1385</v>
+      </c>
+      <c r="F14">
+        <v>2552</v>
+      </c>
+      <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1063</v>
-      </c>
-      <c r="F14">
-        <v>1258</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>1323</v>
+        <v>1486</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1323</v>
+        <v>1486</v>
       </c>
       <c r="F15">
-        <v>2547</v>
+        <v>2454</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -805,51 +805,51 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>1380</v>
+        <v>1522</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>1380</v>
+        <v>1522</v>
       </c>
       <c r="F16">
-        <v>2410</v>
+        <v>2585</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>1381</v>
+        <v>1533</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>1381</v>
+        <v>1533</v>
       </c>
       <c r="F17">
-        <v>1624</v>
+        <v>1662</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -857,51 +857,51 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>1454</v>
+        <v>1556</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>1454</v>
+        <v>1556</v>
       </c>
       <c r="F18">
-        <v>3038</v>
+        <v>2989</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1637</v>
+      </c>
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="B19">
-        <v>1457</v>
-      </c>
-      <c r="C19">
-        <v>35</v>
-      </c>
       <c r="D19">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>1457</v>
+        <v>1637</v>
       </c>
       <c r="F19">
-        <v>2728</v>
+        <v>1765</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -909,54 +909,54 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>1726</v>
+        <v>1654</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1726</v>
+        <v>1654</v>
       </c>
       <c r="F20">
-        <v>3226</v>
+        <v>1763</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>1769</v>
+        <v>1752</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>1769</v>
+        <v>1752</v>
       </c>
       <c r="F21">
-        <v>1929</v>
+        <v>3151</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
